--- a/data/trans_bre/LAWTONB_R2-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/LAWTONB_R2-Provincia-trans_bre.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-18,26; 22,48</t>
+          <t>-17,85; 22,27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -652,12 +652,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,03; 48,88</t>
+          <t>7,76; 47,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-56,06; 156,93</t>
+          <t>-54,62; 160,27</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>26,42; 347,4</t>
+          <t>21,83; 343,35</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-15,19; 11,92</t>
+          <t>-15,48; 10,81</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 28,68</t>
+          <t>-3,31; 27,32</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,65; 31,36</t>
+          <t>5,49; 30,61</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-47,63; 78,97</t>
+          <t>-47,26; 65,14</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-7,6; 138,36</t>
+          <t>-9,23; 127,87</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>25,0; 317,61</t>
+          <t>23,04; 281,44</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,52; 36,64</t>
+          <t>6,07; 36,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,91; 21,96</t>
+          <t>-9,18; 21,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-15,64; 12,17</t>
+          <t>-16,35; 12,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>15,83; 291,69</t>
+          <t>12,77; 272,19</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-28,15; 125,23</t>
+          <t>-27,62; 132,54</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-54,99; 74,6</t>
+          <t>-53,1; 81,91</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 31,83</t>
+          <t>0,8; 33,78</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,06; 33,19</t>
+          <t>7,1; 31,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,83; 24,83</t>
+          <t>-4,46; 24,05</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 163,07</t>
+          <t>0,86; 192,53</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>20,3; 134,2</t>
+          <t>19,7; 128,7</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-19,4; 156,57</t>
+          <t>-16,28; 152,48</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-12,78; 30,06</t>
+          <t>-14,69; 30,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 43,18</t>
+          <t>-2,41; 41,01</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>18,68; 53,16</t>
+          <t>18,81; 52,77</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-34,74; 167,07</t>
+          <t>-39,23; 173,2</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 324,64</t>
+          <t>-7,18; 259,76</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>92,28; 954,36</t>
+          <t>94,71; 1006,01</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-15,41; 21,74</t>
+          <t>-16,48; 19,71</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-22,09; 12,37</t>
+          <t>-21,64; 12,55</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-13,26; 21,51</t>
+          <t>-12,55; 21,84</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-34,13; 82,49</t>
+          <t>-35,06; 75,59</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-49,9; 51,46</t>
+          <t>-48,67; 50,97</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-35,96; 99,39</t>
+          <t>-31,43; 99,64</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,76; 25,54</t>
+          <t>5,14; 27,73</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 19,83</t>
+          <t>-4,13; 21,12</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,68; 29,63</t>
+          <t>5,22; 29,15</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>13,28; 185,85</t>
+          <t>20,74; 215,27</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-14,77; 100,36</t>
+          <t>-12,9; 114,83</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>20,86; 167,66</t>
+          <t>14,69; 152,04</t>
         </is>
       </c>
     </row>
@@ -1202,32 +1202,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-11,45; 11,39</t>
+          <t>-10,88; 10,99</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,72; 24,29</t>
+          <t>2,08; 23,3</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3,72; 24,54</t>
+          <t>3,46; 24,13</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-30,67; 50,37</t>
+          <t>-30,05; 43,97</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>6,23; 216,31</t>
+          <t>7,58; 197,8</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>15,59; 182,56</t>
+          <t>11,61; 178,06</t>
         </is>
       </c>
     </row>
@@ -1282,32 +1282,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,38; 13,26</t>
+          <t>2,39; 13,17</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>6,4; 17,43</t>
+          <t>6,61; 17,68</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>9,57; 19,09</t>
+          <t>9,84; 19,4</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>5,96; 54,86</t>
+          <t>8,01; 55,56</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>21,23; 74,18</t>
+          <t>22,0; 76,68</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>39,71; 102,58</t>
+          <t>41,53; 102,59</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/LAWTONB_R2-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/LAWTONB_R2-Provincia-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-17,85; 22,27</t>
+          <t>-18,14; 21,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -652,12 +652,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,76; 47,32</t>
+          <t>8,74; 48,64</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-54,62; 160,27</t>
+          <t>-56,33; 158,59</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>21,83; 343,35</t>
+          <t>21,44; 374,11</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-15,48; 10,81</t>
+          <t>-15,86; 11,3</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 27,32</t>
+          <t>-4,08; 28,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,49; 30,61</t>
+          <t>6,01; 29,97</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-47,26; 65,14</t>
+          <t>-47,37; 70,92</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-9,23; 127,87</t>
+          <t>-10,95; 138,5</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>23,04; 281,44</t>
+          <t>27,13; 293,36</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,07; 36,51</t>
+          <t>6,7; 36,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,18; 21,79</t>
+          <t>-10,51; 22,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-16,35; 12,25</t>
+          <t>-15,8; 12,1</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,77; 272,19</t>
+          <t>19,86; 297,09</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-27,62; 132,54</t>
+          <t>-30,28; 141,49</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-53,1; 81,91</t>
+          <t>-52,03; 76,62</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,8; 33,78</t>
+          <t>1,33; 32,83</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,1; 31,96</t>
+          <t>8,01; 32,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 24,05</t>
+          <t>-6,41; 24,28</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,86; 192,53</t>
+          <t>0,26; 193,51</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,7; 128,7</t>
+          <t>20,63; 128,06</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-16,28; 152,48</t>
+          <t>-20,54; 153,21</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-14,69; 30,41</t>
+          <t>-13,31; 30,6</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 41,01</t>
+          <t>-1,84; 41,92</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>18,81; 52,77</t>
+          <t>19,24; 51,4</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-39,23; 173,2</t>
+          <t>-31,86; 184,83</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,18; 259,76</t>
+          <t>-4,63; 295,46</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>94,71; 1006,01</t>
+          <t>89,57; 885,88</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-16,48; 19,71</t>
+          <t>-16,0; 17,58</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-21,64; 12,55</t>
+          <t>-21,94; 11,94</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-12,55; 21,84</t>
+          <t>-12,12; 22,62</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-35,06; 75,59</t>
+          <t>-33,96; 63,36</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-48,67; 50,97</t>
+          <t>-49,76; 44,51</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-31,43; 99,64</t>
+          <t>-33,35; 103,82</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,14; 27,73</t>
+          <t>3,22; 25,19</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 21,12</t>
+          <t>-4,6; 20,63</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,22; 29,15</t>
+          <t>4,07; 27,87</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>20,74; 215,27</t>
+          <t>8,55; 188,73</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-12,9; 114,83</t>
+          <t>-13,68; 111,74</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>14,69; 152,04</t>
+          <t>12,61; 146,37</t>
         </is>
       </c>
     </row>
@@ -1202,32 +1202,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-10,88; 10,99</t>
+          <t>-12,06; 12,34</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,08; 23,3</t>
+          <t>0,66; 23,39</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3,46; 24,13</t>
+          <t>3,59; 23,12</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-30,05; 43,97</t>
+          <t>-32,54; 49,17</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>7,58; 197,8</t>
+          <t>0,89; 212,85</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>11,61; 178,06</t>
+          <t>14,6; 175,87</t>
         </is>
       </c>
     </row>
@@ -1282,32 +1282,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,39; 13,17</t>
+          <t>2,4; 13,2</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>6,61; 17,68</t>
+          <t>6,22; 17,2</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>9,84; 19,4</t>
+          <t>10,02; 20,08</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>8,01; 55,56</t>
+          <t>8,13; 56,4</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>22,0; 76,68</t>
+          <t>20,98; 74,66</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>41,53; 102,59</t>
+          <t>42,59; 105,46</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/LAWTONB_R2-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/LAWTONB_R2-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -528,7 +528,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con dependencia (Lawton y Brody) ediciones 2007,2012,2014</t>
+          <t>Población con algún grado de dependencia funcional para actividades instrumentales de la vida diaria (Lawton y Brody)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -642,7 +642,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-18,14; 21,4</t>
+          <t>-18,26; 22,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -652,12 +652,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,74; 48,64</t>
+          <t>10,03; 48,88</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-56,33; 158,59</t>
+          <t>-56,06; 156,93</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>21,44; 374,11</t>
+          <t>26,42; 347,4</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-15,86; 11,3</t>
+          <t>-15,19; 11,92</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 28,64</t>
+          <t>-2,19; 28,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,01; 29,97</t>
+          <t>5,65; 31,36</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-47,37; 70,92</t>
+          <t>-47,63; 78,97</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-10,95; 138,5</t>
+          <t>-7,6; 138,36</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>27,13; 293,36</t>
+          <t>25,0; 317,61</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,7; 36,95</t>
+          <t>5,52; 36,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,51; 22,7</t>
+          <t>-9,91; 21,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-15,8; 12,1</t>
+          <t>-15,64; 12,17</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>19,86; 297,09</t>
+          <t>15,83; 291,69</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-30,28; 141,49</t>
+          <t>-28,15; 125,23</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-52,03; 76,62</t>
+          <t>-54,99; 74,6</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,33; 32,83</t>
+          <t>-1,0; 31,83</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,01; 32,44</t>
+          <t>8,06; 33,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-6,41; 24,28</t>
+          <t>-5,83; 24,83</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,26; 193,51</t>
+          <t>-3,88; 163,07</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>20,63; 128,06</t>
+          <t>20,3; 134,2</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-20,54; 153,21</t>
+          <t>-19,4; 156,57</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-13,31; 30,6</t>
+          <t>-12,78; 30,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 41,92</t>
+          <t>-0,68; 43,18</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>19,24; 51,4</t>
+          <t>18,68; 53,16</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-31,86; 184,83</t>
+          <t>-34,74; 167,07</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,63; 295,46</t>
+          <t>-2,41; 324,64</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>89,57; 885,88</t>
+          <t>92,28; 954,36</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-16,0; 17,58</t>
+          <t>-15,41; 21,74</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-21,94; 11,94</t>
+          <t>-22,09; 12,37</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-12,12; 22,62</t>
+          <t>-13,26; 21,51</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-33,96; 63,36</t>
+          <t>-34,13; 82,49</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-49,76; 44,51</t>
+          <t>-49,9; 51,46</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-33,35; 103,82</t>
+          <t>-35,96; 99,39</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,22; 25,19</t>
+          <t>3,76; 25,54</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 20,63</t>
+          <t>-4,71; 19,83</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,07; 27,87</t>
+          <t>5,68; 29,63</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>8,55; 188,73</t>
+          <t>13,28; 185,85</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-13,68; 111,74</t>
+          <t>-14,77; 100,36</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>12,61; 146,37</t>
+          <t>20,86; 167,66</t>
         </is>
       </c>
     </row>
@@ -1202,32 +1202,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-12,06; 12,34</t>
+          <t>-11,45; 11,39</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,66; 23,39</t>
+          <t>2,72; 24,29</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3,59; 23,12</t>
+          <t>3,72; 24,54</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-32,54; 49,17</t>
+          <t>-30,67; 50,37</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,89; 212,85</t>
+          <t>6,23; 216,31</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>14,6; 175,87</t>
+          <t>15,59; 182,56</t>
         </is>
       </c>
     </row>
@@ -1282,32 +1282,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,4; 13,2</t>
+          <t>2,38; 13,26</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>6,22; 17,2</t>
+          <t>6,4; 17,43</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>10,02; 20,08</t>
+          <t>9,57; 19,09</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>8,13; 56,4</t>
+          <t>5,96; 54,86</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>20,98; 74,66</t>
+          <t>21,23; 74,18</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>42,59; 105,46</t>
+          <t>39,71; 102,58</t>
         </is>
       </c>
     </row>
